--- a/SAMPLE UPLOAD/sample upload harga.xlsx
+++ b/SAMPLE UPLOAD/sample upload harga.xlsx
@@ -1564,7 +1564,7 @@
     <t>A36-21</t>
   </si>
   <si>
-    <t>MAR-2015</t>
+    <t>FEB-2015</t>
   </si>
 </sst>
 </file>
@@ -2143,15 +2143,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>

--- a/SAMPLE UPLOAD/sample upload harga.xlsx
+++ b/SAMPLE UPLOAD/sample upload harga.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\SAMPLE UPLOAD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11655" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>Sales</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0">
+    <comment ref="Q6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0">
+    <comment ref="Q7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0">
+    <comment ref="Q8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="0">
+    <comment ref="Q9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0">
+    <comment ref="Q10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="0">
+    <comment ref="Q11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0">
+    <comment ref="Q12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0">
+    <comment ref="Q13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0">
+    <comment ref="Q14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0">
+    <comment ref="Q15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="Q16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="0">
+    <comment ref="Q17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q18" authorId="0">
+    <comment ref="Q18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -427,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0">
+    <comment ref="Q19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q20" authorId="0">
+    <comment ref="Q20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q21" authorId="0">
+    <comment ref="Q21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0">
+    <comment ref="Q22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0">
+    <comment ref="Q23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0">
+    <comment ref="Q24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q25" authorId="0">
+    <comment ref="Q25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0">
+    <comment ref="Q26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -620,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0">
+    <comment ref="Q27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q28" authorId="0">
+    <comment ref="Q28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q29" authorId="0">
+    <comment ref="Q29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1559,19 +1564,19 @@
     <t>A36-21</t>
   </si>
   <si>
-    <t>FEB-2015</t>
-  </si>
-  <si>
     <t>CB12X</t>
   </si>
   <si>
     <t>CB24X</t>
+  </si>
+  <si>
+    <t>MAR-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1921,7 +1926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1956,7 +1961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2133,7 +2138,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2143,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2171,10 +2176,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" t="s">
         <v>287</v>
-      </c>
-      <c r="E1" t="s">
-        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2191,7 +2196,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2229,17 +2234,17 @@
         <v>#REF!</v>
       </c>
       <c r="R2" s="3">
-        <f>ROUNDUP(F2+(F2*6%),-3)</f>
+        <f t="shared" ref="R2:R65" si="0">ROUNDUP(F2+(F2*6%),-3)</f>
         <v>5310811000</v>
       </c>
       <c r="S2" s="4">
-        <f>ROUNDUP(G2+(G2*6%),-3)</f>
+        <f t="shared" ref="S2:S65" si="1">ROUNDUP(G2+(G2*6%),-3)</f>
         <v>5638371000</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2277,17 +2282,17 @@
         <v>#REF!</v>
       </c>
       <c r="R3" s="3">
-        <f>ROUNDUP(F3+(F3*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S3" s="4">
-        <f>ROUNDUP(G3+(G3*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -2325,17 +2330,17 @@
         <v>#REF!</v>
       </c>
       <c r="R4" s="3">
-        <f>ROUNDUP(F4+(F4*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S4" s="4">
-        <f>ROUNDUP(G4+(G4*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2373,17 +2378,17 @@
         <v>#REF!</v>
       </c>
       <c r="R5" s="3">
-        <f>ROUNDUP(F5+(F5*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S5" s="4">
-        <f>ROUNDUP(G5+(G5*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2421,17 +2426,17 @@
         <v>#REF!</v>
       </c>
       <c r="R6" s="3">
-        <f>ROUNDUP(F6+(F6*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S6" s="4">
-        <f>ROUNDUP(G6+(G6*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2469,17 +2474,17 @@
         <v>#REF!</v>
       </c>
       <c r="R7" s="3">
-        <f>ROUNDUP(F7+(F7*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S7" s="4">
-        <f>ROUNDUP(G7+(G7*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2517,17 +2522,17 @@
         <v>#REF!</v>
       </c>
       <c r="R8" s="3">
-        <f>ROUNDUP(F8+(F8*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S8" s="4">
-        <f>ROUNDUP(G8+(G8*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2565,17 +2570,17 @@
         <v>#REF!</v>
       </c>
       <c r="R9" s="3">
-        <f>ROUNDUP(F9+(F9*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S9" s="4">
-        <f>ROUNDUP(G9+(G9*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -2613,17 +2618,17 @@
         <v>#REF!</v>
       </c>
       <c r="R10" s="3">
-        <f>ROUNDUP(F10+(F10*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>4009587000</v>
       </c>
       <c r="S10" s="4">
-        <f>ROUNDUP(G10+(G10*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4256889000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -2661,17 +2666,17 @@
         <v>#REF!</v>
       </c>
       <c r="R11" s="3">
-        <f>ROUNDUP(F11+(F11*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3883499000</v>
       </c>
       <c r="S11" s="4">
-        <f>ROUNDUP(G11+(G11*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4123025000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2709,17 +2714,17 @@
         <v>#REF!</v>
       </c>
       <c r="R12" s="3">
-        <f>ROUNDUP(F12+(F12*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5310811000</v>
       </c>
       <c r="S12" s="4">
-        <f>ROUNDUP(G12+(G12*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5638371000</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -2757,17 +2762,17 @@
         <v>#REF!</v>
       </c>
       <c r="R13" s="3">
-        <f>ROUNDUP(F13+(F13*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S13" s="4">
-        <f>ROUNDUP(G13+(G13*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -2805,17 +2810,17 @@
         <v>#REF!</v>
       </c>
       <c r="R14" s="3">
-        <f>ROUNDUP(F14+(F14*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S14" s="4">
-        <f>ROUNDUP(G14+(G14*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -2853,17 +2858,17 @@
         <v>#REF!</v>
       </c>
       <c r="R15" s="3">
-        <f>ROUNDUP(F15+(F15*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S15" s="4">
-        <f>ROUNDUP(G15+(G15*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -2901,17 +2906,17 @@
         <v>#REF!</v>
       </c>
       <c r="R16" s="3">
-        <f>ROUNDUP(F16+(F16*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S16" s="4">
-        <f>ROUNDUP(G16+(G16*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -2949,17 +2954,17 @@
         <v>#REF!</v>
       </c>
       <c r="R17" s="3">
-        <f>ROUNDUP(F17+(F17*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S17" s="4">
-        <f>ROUNDUP(G17+(G17*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -2997,17 +3002,17 @@
         <v>#REF!</v>
       </c>
       <c r="R18" s="3">
-        <f>ROUNDUP(F18+(F18*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3007191000</v>
       </c>
       <c r="S18" s="4">
-        <f>ROUNDUP(G18+(G18*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3192667000</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3045,17 +3050,17 @@
         <v>#REF!</v>
       </c>
       <c r="R19" s="3">
-        <f>ROUNDUP(F19+(F19*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2472579000</v>
       </c>
       <c r="S19" s="4">
-        <f>ROUNDUP(G19+(G19*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2625082000</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -3093,17 +3098,17 @@
         <v>#REF!</v>
       </c>
       <c r="R20" s="3">
-        <f>ROUNDUP(F20+(F20*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>4009587000</v>
       </c>
       <c r="S20" s="4">
-        <f>ROUNDUP(G20+(G20*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4256889000</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3141,17 +3146,17 @@
         <v>#REF!</v>
       </c>
       <c r="R21" s="3">
-        <f>ROUNDUP(F21+(F21*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3883499000</v>
       </c>
       <c r="S21" s="4">
-        <f>ROUNDUP(G21+(G21*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4123025000</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -3189,17 +3194,17 @@
         <v>#REF!</v>
       </c>
       <c r="R22" s="3">
-        <f>ROUNDUP(F22+(F22*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5350543000</v>
       </c>
       <c r="S22" s="4">
-        <f>ROUNDUP(G22+(G22*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -3237,17 +3242,17 @@
         <v>#REF!</v>
       </c>
       <c r="R23" s="3">
-        <f>ROUNDUP(F23+(F23*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2491077000</v>
       </c>
       <c r="S23" s="4">
-        <f>ROUNDUP(G23+(G23*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -3285,17 +3290,17 @@
         <v>#REF!</v>
       </c>
       <c r="R24" s="3">
-        <f>ROUNDUP(F24+(F24*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2491077000</v>
       </c>
       <c r="S24" s="4">
-        <f>ROUNDUP(G24+(G24*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -3333,17 +3338,17 @@
         <v>#REF!</v>
       </c>
       <c r="R25" s="3">
-        <f>ROUNDUP(F25+(F25*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S25" s="4">
-        <f>ROUNDUP(G25+(G25*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
@@ -3381,17 +3386,17 @@
         <v>#REF!</v>
       </c>
       <c r="R26" s="3">
-        <f>ROUNDUP(F26+(F26*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S26" s="4">
-        <f>ROUNDUP(G26+(G26*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -3429,17 +3434,17 @@
         <v>#REF!</v>
       </c>
       <c r="R27" s="3">
-        <f>ROUNDUP(F27+(F27*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S27" s="4">
-        <f>ROUNDUP(G27+(G27*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
@@ -3477,17 +3482,17 @@
         <v>#REF!</v>
       </c>
       <c r="R28" s="3">
-        <f>ROUNDUP(F28+(F28*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S28" s="4">
-        <f>ROUNDUP(G28+(G28*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -3525,17 +3530,17 @@
         <v>#REF!</v>
       </c>
       <c r="R29" s="3">
-        <f>ROUNDUP(F29+(F29*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2491077000</v>
       </c>
       <c r="S29" s="4">
-        <f>ROUNDUP(G29+(G29*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -3570,17 +3575,17 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="34"/>
       <c r="R30" s="3">
-        <f>ROUNDUP(F30+(F30*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>4039584000</v>
       </c>
       <c r="S30" s="4">
-        <f>ROUNDUP(G30+(G30*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
@@ -3615,17 +3620,17 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="3">
-        <f>ROUNDUP(F31+(F31*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3912553000</v>
       </c>
       <c r="S31" s="4">
-        <f>ROUNDUP(G31+(G31*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -3660,17 +3665,17 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="3">
-        <f>ROUNDUP(F32+(F32*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5297568000</v>
       </c>
       <c r="S32" s="4">
-        <f>ROUNDUP(G32+(G32*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5624310000</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
@@ -3705,17 +3710,17 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="3">
-        <f>ROUNDUP(F33+(F33*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S33" s="4">
-        <f>ROUNDUP(G33+(G33*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -3750,17 +3755,17 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="3">
-        <f>ROUNDUP(F34+(F34*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S34" s="4">
-        <f>ROUNDUP(G34+(G34*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -3795,17 +3800,17 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="3">
-        <f>ROUNDUP(F35+(F35*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S35" s="4">
-        <f>ROUNDUP(G35+(G35*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -3840,17 +3845,17 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="3">
-        <f>ROUNDUP(F36+(F36*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S36" s="4">
-        <f>ROUNDUP(G36+(G36*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -3885,17 +3890,17 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="3">
-        <f>ROUNDUP(F37+(F37*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S37" s="4">
-        <f>ROUNDUP(G37+(G37*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -3930,17 +3935,17 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="3">
-        <f>ROUNDUP(F38+(F38*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S38" s="4">
-        <f>ROUNDUP(G38+(G38*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
@@ -3975,17 +3980,17 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="3">
-        <f>ROUNDUP(F39+(F39*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S39" s="4">
-        <f>ROUNDUP(G39+(G39*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
@@ -4020,17 +4025,17 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="3">
-        <f>ROUNDUP(F40+(F40*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3999588000</v>
       </c>
       <c r="S40" s="4">
-        <f>ROUNDUP(G40+(G40*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4246274000</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -4065,17 +4070,17 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="3">
-        <f>ROUNDUP(F41+(F41*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3873815000</v>
       </c>
       <c r="S41" s="4">
-        <f>ROUNDUP(G41+(G41*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4112743000</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -4110,17 +4115,17 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="3">
-        <f>ROUNDUP(F42+(F42*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5350543000</v>
       </c>
       <c r="S42" s="4">
-        <f>ROUNDUP(G42+(G42*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -4155,17 +4160,17 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="3">
-        <f>ROUNDUP(F43+(F43*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2491077000</v>
       </c>
       <c r="S43" s="4">
-        <f>ROUNDUP(G43+(G43*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
@@ -4200,17 +4205,17 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="3">
-        <f>ROUNDUP(F44+(F44*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2491077000</v>
       </c>
       <c r="S44" s="4">
-        <f>ROUNDUP(G44+(G44*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
@@ -4245,17 +4250,17 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="3">
-        <f>ROUNDUP(F45+(F45*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S45" s="4">
-        <f>ROUNDUP(G45+(G45*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
@@ -4290,17 +4295,17 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="3">
-        <f>ROUNDUP(F46+(F46*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S46" s="4">
-        <f>ROUNDUP(G46+(G46*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -4335,17 +4340,17 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="3">
-        <f>ROUNDUP(F47+(F47*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3029688000</v>
       </c>
       <c r="S47" s="4">
-        <f>ROUNDUP(G47+(G47*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
@@ -4380,17 +4385,17 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="3">
-        <f>ROUNDUP(F48+(F48*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>4039584000</v>
       </c>
       <c r="S48" s="4">
-        <f>ROUNDUP(G48+(G48*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
@@ -4425,17 +4430,17 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="3">
-        <f>ROUNDUP(F49+(F49*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3912553000</v>
       </c>
       <c r="S49" s="4">
-        <f>ROUNDUP(G49+(G49*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
@@ -4470,17 +4475,17 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="3">
-        <f>ROUNDUP(F50+(F50*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5297568000</v>
       </c>
       <c r="S50" s="4">
-        <f>ROUNDUP(G50+(G50*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5624310000</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
@@ -4515,17 +4520,17 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="3">
-        <f>ROUNDUP(F51+(F51*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S51" s="4">
-        <f>ROUNDUP(G51+(G51*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -4560,17 +4565,17 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="3">
-        <f>ROUNDUP(F52+(F52*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S52" s="4">
-        <f>ROUNDUP(G52+(G52*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
@@ -4605,17 +4610,17 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="3">
-        <f>ROUNDUP(F53+(F53*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S53" s="4">
-        <f>ROUNDUP(G53+(G53*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -4650,17 +4655,17 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="3">
-        <f>ROUNDUP(F54+(F54*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S54" s="4">
-        <f>ROUNDUP(G54+(G54*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
@@ -4695,17 +4700,17 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="3">
-        <f>ROUNDUP(F55+(F55*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S55" s="4">
-        <f>ROUNDUP(G55+(G55*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
@@ -4740,17 +4745,17 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="3">
-        <f>ROUNDUP(F56+(F56*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3999588000</v>
       </c>
       <c r="S56" s="4">
-        <f>ROUNDUP(G56+(G56*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4246274000</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -4785,17 +4790,17 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="3">
-        <f>ROUNDUP(F57+(F57*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3873815000</v>
       </c>
       <c r="S57" s="4">
-        <f>ROUNDUP(G57+(G57*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4112743000</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -4830,17 +4835,17 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="3">
-        <f>ROUNDUP(F58+(F58*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>5297568000</v>
       </c>
       <c r="S58" s="4">
-        <f>ROUNDUP(G58+(G58*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>5624310000</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
@@ -4875,17 +4880,17 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="3">
-        <f>ROUNDUP(F59+(F59*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S59" s="4">
-        <f>ROUNDUP(G59+(G59*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -4920,17 +4925,17 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="3">
-        <f>ROUNDUP(F60+(F60*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2466413000</v>
       </c>
       <c r="S60" s="4">
-        <f>ROUNDUP(G60+(G60*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>2618537000</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
@@ -4965,17 +4970,17 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="3">
-        <f>ROUNDUP(F61+(F61*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S61" s="4">
-        <f>ROUNDUP(G61+(G61*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
@@ -5010,17 +5015,17 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="3">
-        <f>ROUNDUP(F62+(F62*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S62" s="4">
-        <f>ROUNDUP(G62+(G62*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -5055,17 +5060,17 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="3">
-        <f>ROUNDUP(F63+(F63*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>2999691000</v>
       </c>
       <c r="S63" s="4">
-        <f>ROUNDUP(G63+(G63*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>3184706000</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
@@ -5100,17 +5105,17 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="3">
-        <f>ROUNDUP(F64+(F64*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3999588000</v>
       </c>
       <c r="S64" s="4">
-        <f>ROUNDUP(G64+(G64*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4246274000</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -5145,17 +5150,17 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="3">
-        <f>ROUNDUP(F65+(F65*6%),-3)</f>
+        <f t="shared" si="0"/>
         <v>3873815000</v>
       </c>
       <c r="S65" s="4">
-        <f>ROUNDUP(G65+(G65*6%),-3)</f>
+        <f t="shared" si="1"/>
         <v>4112743000</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -5190,17 +5195,17 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="3">
-        <f>ROUNDUP(F66+(F66*6%),-3)</f>
+        <f t="shared" ref="R66:R129" si="2">ROUNDUP(F66+(F66*6%),-3)</f>
         <v>5350543000</v>
       </c>
       <c r="S66" s="4">
-        <f>ROUNDUP(G66+(G66*6%),-3)</f>
+        <f t="shared" ref="S66:S129" si="3">ROUNDUP(G66+(G66*6%),-3)</f>
         <v>5680553000</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -5235,17 +5240,17 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="3">
-        <f>ROUNDUP(F67+(F67*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S67" s="4">
-        <f>ROUNDUP(G67+(G67*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -5280,17 +5285,17 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="3">
-        <f>ROUNDUP(F68+(F68*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S68" s="4">
-        <f>ROUNDUP(G68+(G68*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
@@ -5325,17 +5330,17 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="3">
-        <f>ROUNDUP(F69+(F69*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S69" s="4">
-        <f>ROUNDUP(G69+(G69*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
@@ -5370,17 +5375,17 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="3">
-        <f>ROUNDUP(F70+(F70*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S70" s="4">
-        <f>ROUNDUP(G70+(G70*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
@@ -5415,17 +5420,17 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="3">
-        <f>ROUNDUP(F71+(F71*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S71" s="4">
-        <f>ROUNDUP(G71+(G71*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
@@ -5460,17 +5465,17 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="3">
-        <f>ROUNDUP(F72+(F72*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S72" s="4">
-        <f>ROUNDUP(G72+(G72*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
@@ -5505,17 +5510,17 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="3">
-        <f>ROUNDUP(F73+(F73*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S73" s="4">
-        <f>ROUNDUP(G73+(G73*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
@@ -5550,17 +5555,17 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="3">
-        <f>ROUNDUP(F74+(F74*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4039584000</v>
       </c>
       <c r="S74" s="4">
-        <f>ROUNDUP(G74+(G74*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
@@ -5595,17 +5600,17 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="3">
-        <f>ROUNDUP(F75+(F75*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3912553000</v>
       </c>
       <c r="S75" s="4">
-        <f>ROUNDUP(G75+(G75*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
@@ -5640,17 +5645,17 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="3">
-        <f>ROUNDUP(F76+(F76*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5350543000</v>
       </c>
       <c r="S76" s="4">
-        <f>ROUNDUP(G76+(G76*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
@@ -5685,17 +5690,17 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="3">
-        <f>ROUNDUP(F77+(F77*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S77" s="4">
-        <f>ROUNDUP(G77+(G77*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
@@ -5730,17 +5735,17 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="3">
-        <f>ROUNDUP(F78+(F78*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S78" s="4">
-        <f>ROUNDUP(G78+(G78*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
@@ -5775,17 +5780,17 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="3">
-        <f>ROUNDUP(F79+(F79*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S79" s="4">
-        <f>ROUNDUP(G79+(G79*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
@@ -5820,17 +5825,17 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="3">
-        <f>ROUNDUP(F80+(F80*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S80" s="4">
-        <f>ROUNDUP(G80+(G80*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
@@ -5865,17 +5870,17 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="3">
-        <f>ROUNDUP(F81+(F81*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S81" s="4">
-        <f>ROUNDUP(G81+(G81*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
@@ -5910,17 +5915,17 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="3">
-        <f>ROUNDUP(F82+(F82*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S82" s="4">
-        <f>ROUNDUP(G82+(G82*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
@@ -5955,17 +5960,17 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="3">
-        <f>ROUNDUP(F83+(F83*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S83" s="4">
-        <f>ROUNDUP(G83+(G83*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
@@ -6000,17 +6005,17 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="3">
-        <f>ROUNDUP(F84+(F84*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4039584000</v>
       </c>
       <c r="S84" s="4">
-        <f>ROUNDUP(G84+(G84*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
@@ -6045,17 +6050,17 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="3">
-        <f>ROUNDUP(F85+(F85*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3912553000</v>
       </c>
       <c r="S85" s="4">
-        <f>ROUNDUP(G85+(G85*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
@@ -6090,17 +6095,17 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="3">
-        <f>ROUNDUP(F86+(F86*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5403519000</v>
       </c>
       <c r="S86" s="4">
-        <f>ROUNDUP(G86+(G86*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5736796000</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
@@ -6135,17 +6140,17 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="3">
-        <f>ROUNDUP(F87+(F87*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2515741000</v>
       </c>
       <c r="S87" s="4">
-        <f>ROUNDUP(G87+(G87*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
@@ -6180,17 +6185,17 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="3">
-        <f>ROUNDUP(F88+(F88*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S88" s="4">
-        <f>ROUNDUP(G88+(G88*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
@@ -6225,17 +6230,17 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="3">
-        <f>ROUNDUP(F89+(F89*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S89" s="4">
-        <f>ROUNDUP(G89+(G89*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -6270,17 +6275,17 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="3">
-        <f>ROUNDUP(F90+(F90*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S90" s="4">
-        <f>ROUNDUP(G90+(G90*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
@@ -6315,17 +6320,17 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="3">
-        <f>ROUNDUP(F91+(F91*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2515741000</v>
       </c>
       <c r="S91" s="4">
-        <f>ROUNDUP(G91+(G91*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -6360,17 +6365,17 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="3">
-        <f>ROUNDUP(F92+(F92*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4079580000</v>
       </c>
       <c r="S92" s="4">
-        <f>ROUNDUP(G92+(G92*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
@@ -6405,17 +6410,17 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="3">
-        <f>ROUNDUP(F93+(F93*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3951291000</v>
       </c>
       <c r="S93" s="4">
-        <f>ROUNDUP(G93+(G93*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
@@ -6450,17 +6455,17 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="3">
-        <f>ROUNDUP(F94+(F94*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5350543000</v>
       </c>
       <c r="S94" s="4">
-        <f>ROUNDUP(G94+(G94*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
@@ -6495,17 +6500,17 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="3">
-        <f>ROUNDUP(F95+(F95*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S95" s="4">
-        <f>ROUNDUP(G95+(G95*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
@@ -6540,17 +6545,17 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="3">
-        <f>ROUNDUP(F96+(F96*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S96" s="4">
-        <f>ROUNDUP(G96+(G96*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
@@ -6585,17 +6590,17 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="3">
-        <f>ROUNDUP(F97+(F97*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S97" s="4">
-        <f>ROUNDUP(G97+(G97*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
@@ -6630,17 +6635,17 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="3">
-        <f>ROUNDUP(F98+(F98*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S98" s="4">
-        <f>ROUNDUP(G98+(G98*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
@@ -6675,17 +6680,17 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="3">
-        <f>ROUNDUP(F99+(F99*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S99" s="4">
-        <f>ROUNDUP(G99+(G99*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
@@ -6720,17 +6725,17 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="3">
-        <f>ROUNDUP(F100+(F100*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4039584000</v>
       </c>
       <c r="S100" s="4">
-        <f>ROUNDUP(G100+(G100*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
@@ -6765,17 +6770,17 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="3">
-        <f>ROUNDUP(F101+(F101*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3912553000</v>
       </c>
       <c r="S101" s="4">
-        <f>ROUNDUP(G101+(G101*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
@@ -6810,17 +6815,17 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="3">
-        <f>ROUNDUP(F102+(F102*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5350543000</v>
       </c>
       <c r="S102" s="4">
-        <f>ROUNDUP(G102+(G102*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
@@ -6855,17 +6860,17 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="3">
-        <f>ROUNDUP(F103+(F103*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S103" s="4">
-        <f>ROUNDUP(G103+(G103*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -6900,17 +6905,17 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="3">
-        <f>ROUNDUP(F104+(F104*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S104" s="4">
-        <f>ROUNDUP(G104+(G104*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
@@ -6945,17 +6950,17 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="3">
-        <f>ROUNDUP(F105+(F105*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S105" s="4">
-        <f>ROUNDUP(G105+(G105*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
@@ -6990,17 +6995,17 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="3">
-        <f>ROUNDUP(F106+(F106*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S106" s="4">
-        <f>ROUNDUP(G106+(G106*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
@@ -7035,17 +7040,17 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="3">
-        <f>ROUNDUP(F107+(F107*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S107" s="4">
-        <f>ROUNDUP(G107+(G107*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
@@ -7080,17 +7085,17 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="3">
-        <f>ROUNDUP(F108+(F108*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4039584000</v>
       </c>
       <c r="S108" s="4">
-        <f>ROUNDUP(G108+(G108*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B109" t="s">
         <v>114</v>
@@ -7125,17 +7130,17 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="3">
-        <f>ROUNDUP(F109+(F109*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3912553000</v>
       </c>
       <c r="S109" s="4">
-        <f>ROUNDUP(G109+(G109*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
@@ -7170,17 +7175,17 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="3">
-        <f>ROUNDUP(F110+(F110*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5403519000</v>
       </c>
       <c r="S110" s="4">
-        <f>ROUNDUP(G110+(G110*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5736796000</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -7215,17 +7220,17 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="3">
-        <f>ROUNDUP(F111+(F111*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2515741000</v>
       </c>
       <c r="S111" s="4">
-        <f>ROUNDUP(G111+(G111*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s">
         <v>117</v>
@@ -7260,17 +7265,17 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="3">
-        <f>ROUNDUP(F112+(F112*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2515741000</v>
       </c>
       <c r="S112" s="4">
-        <f>ROUNDUP(G112+(G112*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
@@ -7305,17 +7310,17 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="3">
-        <f>ROUNDUP(F113+(F113*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S113" s="4">
-        <f>ROUNDUP(G113+(G113*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
         <v>119</v>
@@ -7350,17 +7355,17 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="3">
-        <f>ROUNDUP(F114+(F114*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S114" s="4">
-        <f>ROUNDUP(G114+(G114*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B115" t="s">
         <v>120</v>
@@ -7395,17 +7400,17 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="3">
-        <f>ROUNDUP(F115+(F115*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S115" s="4">
-        <f>ROUNDUP(G115+(G115*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -7440,17 +7445,17 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="3">
-        <f>ROUNDUP(F116+(F116*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3059685000</v>
       </c>
       <c r="S116" s="4">
-        <f>ROUNDUP(G116+(G116*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B117" t="s">
         <v>122</v>
@@ -7485,17 +7490,17 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="3">
-        <f>ROUNDUP(F117+(F117*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2515741000</v>
       </c>
       <c r="S117" s="4">
-        <f>ROUNDUP(G117+(G117*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
         <v>123</v>
@@ -7530,17 +7535,17 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="3">
-        <f>ROUNDUP(F118+(F118*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4079580000</v>
       </c>
       <c r="S118" s="4">
-        <f>ROUNDUP(G118+(G118*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
@@ -7575,17 +7580,17 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="3">
-        <f>ROUNDUP(F119+(F119*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3951291000</v>
       </c>
       <c r="S119" s="4">
-        <f>ROUNDUP(G119+(G119*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
         <v>125</v>
@@ -7620,17 +7625,17 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="3">
-        <f>ROUNDUP(F120+(F120*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>5350543000</v>
       </c>
       <c r="S120" s="4">
-        <f>ROUNDUP(G120+(G120*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
         <v>126</v>
@@ -7665,17 +7670,17 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="3">
-        <f>ROUNDUP(F121+(F121*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S121" s="4">
-        <f>ROUNDUP(G121+(G121*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
         <v>127</v>
@@ -7710,17 +7715,17 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="3">
-        <f>ROUNDUP(F122+(F122*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S122" s="4">
-        <f>ROUNDUP(G122+(G122*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
         <v>128</v>
@@ -7755,17 +7760,17 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="3">
-        <f>ROUNDUP(F123+(F123*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S123" s="4">
-        <f>ROUNDUP(G123+(G123*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
         <v>129</v>
@@ -7800,17 +7805,17 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="3">
-        <f>ROUNDUP(F124+(F124*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S124" s="4">
-        <f>ROUNDUP(G124+(G124*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B125" t="s">
         <v>130</v>
@@ -7845,17 +7850,17 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="3">
-        <f>ROUNDUP(F125+(F125*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S125" s="4">
-        <f>ROUNDUP(G125+(G125*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B126" t="s">
         <v>131</v>
@@ -7890,17 +7895,17 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="3">
-        <f>ROUNDUP(F126+(F126*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3029688000</v>
       </c>
       <c r="S126" s="4">
-        <f>ROUNDUP(G126+(G126*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B127" t="s">
         <v>132</v>
@@ -7935,17 +7940,17 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="3">
-        <f>ROUNDUP(F127+(F127*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>2491077000</v>
       </c>
       <c r="S127" s="4">
-        <f>ROUNDUP(G127+(G127*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B128" t="s">
         <v>133</v>
@@ -7980,17 +7985,17 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="3">
-        <f>ROUNDUP(F128+(F128*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>4039584000</v>
       </c>
       <c r="S128" s="4">
-        <f>ROUNDUP(G128+(G128*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4288737000</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B129" t="s">
         <v>134</v>
@@ -8025,17 +8030,17 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="3">
-        <f>ROUNDUP(F129+(F129*6%),-3)</f>
+        <f t="shared" si="2"/>
         <v>3912553000</v>
       </c>
       <c r="S129" s="4">
-        <f>ROUNDUP(G129+(G129*6%),-3)</f>
+        <f t="shared" si="3"/>
         <v>4153871000</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B130" t="s">
         <v>135</v>
@@ -8070,17 +8075,17 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="3">
-        <f>ROUNDUP(F130+(F130*6%),-3)</f>
+        <f t="shared" ref="R130:R193" si="4">ROUNDUP(F130+(F130*6%),-3)</f>
         <v>5403519000</v>
       </c>
       <c r="S130" s="4">
-        <f>ROUNDUP(G130+(G130*6%),-3)</f>
+        <f t="shared" ref="S130:S193" si="5">ROUNDUP(G130+(G130*6%),-3)</f>
         <v>5736796000</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B131" t="s">
         <v>136</v>
@@ -8115,17 +8120,17 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="3">
-        <f>ROUNDUP(F131+(F131*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S131" s="4">
-        <f>ROUNDUP(G131+(G131*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B132" t="s">
         <v>137</v>
@@ -8160,17 +8165,17 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="3">
-        <f>ROUNDUP(F132+(F132*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S132" s="4">
-        <f>ROUNDUP(G132+(G132*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
         <v>138</v>
@@ -8205,17 +8210,17 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="3">
-        <f>ROUNDUP(F133+(F133*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S133" s="4">
-        <f>ROUNDUP(G133+(G133*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B134" t="s">
         <v>139</v>
@@ -8250,17 +8255,17 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="3">
-        <f>ROUNDUP(F134+(F134*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S134" s="4">
-        <f>ROUNDUP(G134+(G134*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B135" t="s">
         <v>140</v>
@@ -8295,17 +8300,17 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="3">
-        <f>ROUNDUP(F135+(F135*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S135" s="4">
-        <f>ROUNDUP(G135+(G135*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
@@ -8340,17 +8345,17 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="3">
-        <f>ROUNDUP(F136+(F136*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S136" s="4">
-        <f>ROUNDUP(G136+(G136*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
@@ -8385,17 +8390,17 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="3">
-        <f>ROUNDUP(F137+(F137*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S137" s="4">
-        <f>ROUNDUP(G137+(G137*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
@@ -8430,17 +8435,17 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="3">
-        <f>ROUNDUP(F138+(F138*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>5350543000</v>
       </c>
       <c r="S138" s="4">
-        <f>ROUNDUP(G138+(G138*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>5680553000</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
@@ -8475,17 +8480,17 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="3">
-        <f>ROUNDUP(F139+(F139*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2491077000</v>
       </c>
       <c r="S139" s="4">
-        <f>ROUNDUP(G139+(G139*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
@@ -8520,17 +8525,17 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="3">
-        <f>ROUNDUP(F140+(F140*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2491077000</v>
       </c>
       <c r="S140" s="4">
-        <f>ROUNDUP(G140+(G140*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
@@ -8565,17 +8570,17 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="3">
-        <f>ROUNDUP(F141+(F141*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3029688000</v>
       </c>
       <c r="S141" s="4">
-        <f>ROUNDUP(G141+(G141*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
@@ -8610,17 +8615,17 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="3">
-        <f>ROUNDUP(F142+(F142*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3029688000</v>
       </c>
       <c r="S142" s="4">
-        <f>ROUNDUP(G142+(G142*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
@@ -8655,17 +8660,17 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="3">
-        <f>ROUNDUP(F143+(F143*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3029688000</v>
       </c>
       <c r="S143" s="4">
-        <f>ROUNDUP(G143+(G143*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
@@ -8700,17 +8705,17 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="3">
-        <f>ROUNDUP(F144+(F144*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3029688000</v>
       </c>
       <c r="S144" s="4">
-        <f>ROUNDUP(G144+(G144*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3216552000</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
@@ -8745,17 +8750,17 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="3">
-        <f>ROUNDUP(F145+(F145*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2491077000</v>
       </c>
       <c r="S145" s="4">
-        <f>ROUNDUP(G145+(G145*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2644722000</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
@@ -8790,17 +8795,17 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="3">
-        <f>ROUNDUP(F146+(F146*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>5403519000</v>
       </c>
       <c r="S146" s="4">
-        <f>ROUNDUP(G146+(G146*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>5736796000</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
         <v>152</v>
@@ -8835,17 +8840,17 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="3">
-        <f>ROUNDUP(F147+(F147*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S147" s="4">
-        <f>ROUNDUP(G147+(G147*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B148" t="s">
         <v>153</v>
@@ -8880,17 +8885,17 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="3">
-        <f>ROUNDUP(F148+(F148*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S148" s="4">
-        <f>ROUNDUP(G148+(G148*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B149" t="s">
         <v>154</v>
@@ -8925,17 +8930,17 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="3">
-        <f>ROUNDUP(F149+(F149*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S149" s="4">
-        <f>ROUNDUP(G149+(G149*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B150" t="s">
         <v>155</v>
@@ -8970,17 +8975,17 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="3">
-        <f>ROUNDUP(F150+(F150*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S150" s="4">
-        <f>ROUNDUP(G150+(G150*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B151" t="s">
         <v>156</v>
@@ -9015,17 +9020,17 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="3">
-        <f>ROUNDUP(F151+(F151*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S151" s="4">
-        <f>ROUNDUP(G151+(G151*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
@@ -9060,17 +9065,17 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="3">
-        <f>ROUNDUP(F152+(F152*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S152" s="4">
-        <f>ROUNDUP(G152+(G152*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B153" t="s">
         <v>158</v>
@@ -9105,17 +9110,17 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="3">
-        <f>ROUNDUP(F153+(F153*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S153" s="4">
-        <f>ROUNDUP(G153+(G153*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B154" t="s">
         <v>159</v>
@@ -9150,17 +9155,17 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="3">
-        <f>ROUNDUP(F154+(F154*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>5456495000</v>
       </c>
       <c r="S154" s="4">
-        <f>ROUNDUP(G154+(G154*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>5793039000</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B155" t="s">
         <v>160</v>
@@ -9195,17 +9200,17 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="3">
-        <f>ROUNDUP(F155+(F155*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S155" s="4">
-        <f>ROUNDUP(G155+(G155*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B156" t="s">
         <v>161</v>
@@ -9240,17 +9245,17 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="3">
-        <f>ROUNDUP(F156+(F156*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S156" s="4">
-        <f>ROUNDUP(G156+(G156*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B157" t="s">
         <v>162</v>
@@ -9285,17 +9290,17 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="3">
-        <f>ROUNDUP(F157+(F157*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S157" s="4">
-        <f>ROUNDUP(G157+(G157*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
         <v>163</v>
@@ -9330,17 +9335,17 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="3">
-        <f>ROUNDUP(F158+(F158*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S158" s="4">
-        <f>ROUNDUP(G158+(G158*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B159" t="s">
         <v>164</v>
@@ -9375,17 +9380,17 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="3">
-        <f>ROUNDUP(F159+(F159*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S159" s="4">
-        <f>ROUNDUP(G159+(G159*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B160" t="s">
         <v>165</v>
@@ -9420,17 +9425,17 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="3">
-        <f>ROUNDUP(F160+(F160*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S160" s="4">
-        <f>ROUNDUP(G160+(G160*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B161" t="s">
         <v>166</v>
@@ -9465,17 +9470,17 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="3">
-        <f>ROUNDUP(F161+(F161*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S161" s="4">
-        <f>ROUNDUP(G161+(G161*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B162" t="s">
         <v>167</v>
@@ -9510,17 +9515,17 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="3">
-        <f>ROUNDUP(F162+(F162*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>4119576000</v>
       </c>
       <c r="S162" s="4">
-        <f>ROUNDUP(G162+(G162*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4373662000</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
         <v>168</v>
@@ -9555,17 +9560,17 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="3">
-        <f>ROUNDUP(F163+(F163*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3990029000</v>
       </c>
       <c r="S163" s="4">
-        <f>ROUNDUP(G163+(G163*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4236126000</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B164" t="s">
         <v>169</v>
@@ -9600,17 +9605,17 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="3">
-        <f>ROUNDUP(F164+(F164*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>5403519000</v>
       </c>
       <c r="S164" s="4">
-        <f>ROUNDUP(G164+(G164*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>5736796000</v>
       </c>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
         <v>170</v>
@@ -9645,17 +9650,17 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="3">
-        <f>ROUNDUP(F165+(F165*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S165" s="4">
-        <f>ROUNDUP(G165+(G165*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
         <v>171</v>
@@ -9690,17 +9695,17 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="3">
-        <f>ROUNDUP(F166+(F166*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S166" s="4">
-        <f>ROUNDUP(G166+(G166*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B167" t="s">
         <v>172</v>
@@ -9735,17 +9740,17 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="3">
-        <f>ROUNDUP(F167+(F167*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S167" s="4">
-        <f>ROUNDUP(G167+(G167*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B168" t="s">
         <v>173</v>
@@ -9780,17 +9785,17 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="3">
-        <f>ROUNDUP(F168+(F168*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S168" s="4">
-        <f>ROUNDUP(G168+(G168*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B169" t="s">
         <v>174</v>
@@ -9825,17 +9830,17 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="3">
-        <f>ROUNDUP(F169+(F169*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S169" s="4">
-        <f>ROUNDUP(G169+(G169*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B170" t="s">
         <v>175</v>
@@ -9870,17 +9875,17 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="3">
-        <f>ROUNDUP(F170+(F170*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S170" s="4">
-        <f>ROUNDUP(G170+(G170*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B171" t="s">
         <v>176</v>
@@ -9915,17 +9920,17 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="3">
-        <f>ROUNDUP(F171+(F171*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S171" s="4">
-        <f>ROUNDUP(G171+(G171*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B172" t="s">
         <v>177</v>
@@ -9960,17 +9965,17 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="3">
-        <f>ROUNDUP(F172+(F172*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>4079580000</v>
       </c>
       <c r="S172" s="4">
-        <f>ROUNDUP(G172+(G172*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B173" t="s">
         <v>178</v>
@@ -10005,17 +10010,17 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="3">
-        <f>ROUNDUP(F173+(F173*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3951291000</v>
       </c>
       <c r="S173" s="4">
-        <f>ROUNDUP(G173+(G173*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B174" t="s">
         <v>179</v>
@@ -10050,17 +10055,17 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="3">
-        <f>ROUNDUP(F174+(F174*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S174" s="4">
-        <f>ROUNDUP(G174+(G174*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B175" t="s">
         <v>180</v>
@@ -10095,17 +10100,17 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="3">
-        <f>ROUNDUP(F175+(F175*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S175" s="4">
-        <f>ROUNDUP(G175+(G175*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
@@ -10140,17 +10145,17 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="3">
-        <f>ROUNDUP(F176+(F176*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S176" s="4">
-        <f>ROUNDUP(G176+(G176*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B177" t="s">
         <v>182</v>
@@ -10185,17 +10190,17 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="3">
-        <f>ROUNDUP(F177+(F177*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S177" s="4">
-        <f>ROUNDUP(G177+(G177*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B178" t="s">
         <v>183</v>
@@ -10230,17 +10235,17 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="3">
-        <f>ROUNDUP(F178+(F178*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S178" s="4">
-        <f>ROUNDUP(G178+(G178*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B179" t="s">
         <v>184</v>
@@ -10275,17 +10280,17 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="3">
-        <f>ROUNDUP(F179+(F179*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3089682000</v>
       </c>
       <c r="S179" s="4">
-        <f>ROUNDUP(G179+(G179*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
         <v>185</v>
@@ -10320,17 +10325,17 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="3">
-        <f>ROUNDUP(F180+(F180*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2540406000</v>
       </c>
       <c r="S180" s="4">
-        <f>ROUNDUP(G180+(G180*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>186</v>
@@ -10365,17 +10370,17 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="3">
-        <f>ROUNDUP(F181+(F181*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>4119576000</v>
       </c>
       <c r="S181" s="4">
-        <f>ROUNDUP(G181+(G181*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4373662000</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B182" t="s">
         <v>187</v>
@@ -10410,17 +10415,17 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="3">
-        <f>ROUNDUP(F182+(F182*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3990029000</v>
       </c>
       <c r="S182" s="4">
-        <f>ROUNDUP(G182+(G182*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4236126000</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B183" t="s">
         <v>188</v>
@@ -10455,17 +10460,17 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="3">
-        <f>ROUNDUP(F183+(F183*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S183" s="4">
-        <f>ROUNDUP(G183+(G183*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B184" t="s">
         <v>189</v>
@@ -10500,17 +10505,17 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="3">
-        <f>ROUNDUP(F184+(F184*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S184" s="4">
-        <f>ROUNDUP(G184+(G184*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B185" t="s">
         <v>190</v>
@@ -10545,17 +10550,17 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="3">
-        <f>ROUNDUP(F185+(F185*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S185" s="4">
-        <f>ROUNDUP(G185+(G185*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B186" t="s">
         <v>191</v>
@@ -10590,17 +10595,17 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="3">
-        <f>ROUNDUP(F186+(F186*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S186" s="4">
-        <f>ROUNDUP(G186+(G186*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
         <v>192</v>
@@ -10635,17 +10640,17 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="3">
-        <f>ROUNDUP(F187+(F187*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S187" s="4">
-        <f>ROUNDUP(G187+(G187*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>193</v>
@@ -10680,17 +10685,17 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="3">
-        <f>ROUNDUP(F188+(F188*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3059685000</v>
       </c>
       <c r="S188" s="4">
-        <f>ROUNDUP(G188+(G188*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B189" t="s">
         <v>194</v>
@@ -10725,17 +10730,17 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="3">
-        <f>ROUNDUP(F189+(F189*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S189" s="4">
-        <f>ROUNDUP(G189+(G189*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B190" t="s">
         <v>195</v>
@@ -10770,17 +10775,17 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="3">
-        <f>ROUNDUP(F190+(F190*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>4079580000</v>
       </c>
       <c r="S190" s="4">
-        <f>ROUNDUP(G190+(G190*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>196</v>
@@ -10815,17 +10820,17 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="3">
-        <f>ROUNDUP(F191+(F191*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>3951291000</v>
       </c>
       <c r="S191" s="4">
-        <f>ROUNDUP(G191+(G191*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B192" t="s">
         <v>197</v>
@@ -10860,17 +10865,17 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="3">
-        <f>ROUNDUP(F192+(F192*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S192" s="4">
-        <f>ROUNDUP(G192+(G192*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
         <v>198</v>
@@ -10905,17 +10910,17 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="3">
-        <f>ROUNDUP(F193+(F193*6%),-3)</f>
+        <f t="shared" si="4"/>
         <v>2515741000</v>
       </c>
       <c r="S193" s="4">
-        <f>ROUNDUP(G193+(G193*6%),-3)</f>
+        <f t="shared" si="5"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B194" t="s">
         <v>199</v>
@@ -10950,17 +10955,17 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="3">
-        <f>ROUNDUP(F194+(F194*6%),-3)</f>
+        <f t="shared" ref="R194:R257" si="6">ROUNDUP(F194+(F194*6%),-3)</f>
         <v>3059685000</v>
       </c>
       <c r="S194" s="4">
-        <f>ROUNDUP(G194+(G194*6%),-3)</f>
+        <f t="shared" ref="S194:S257" si="7">ROUNDUP(G194+(G194*6%),-3)</f>
         <v>3248400000</v>
       </c>
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B195" t="s">
         <v>200</v>
@@ -10995,17 +11000,17 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="3">
-        <f>ROUNDUP(F195+(F195*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S195" s="4">
-        <f>ROUNDUP(G195+(G195*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B196" t="s">
         <v>201</v>
@@ -11040,17 +11045,17 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="3">
-        <f>ROUNDUP(F196+(F196*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S196" s="4">
-        <f>ROUNDUP(G196+(G196*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>202</v>
@@ -11085,17 +11090,17 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="3">
-        <f>ROUNDUP(F197+(F197*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S197" s="4">
-        <f>ROUNDUP(G197+(G197*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>203</v>
@@ -11130,17 +11135,17 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="3">
-        <f>ROUNDUP(F198+(F198*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2515741000</v>
       </c>
       <c r="S198" s="4">
-        <f>ROUNDUP(G198+(G198*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B199" t="s">
         <v>204</v>
@@ -11175,17 +11180,17 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="3">
-        <f>ROUNDUP(F199+(F199*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4079580000</v>
       </c>
       <c r="S199" s="4">
-        <f>ROUNDUP(G199+(G199*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B200" t="s">
         <v>205</v>
@@ -11220,17 +11225,17 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="3">
-        <f>ROUNDUP(F200+(F200*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3951291000</v>
       </c>
       <c r="S200" s="4">
-        <f>ROUNDUP(G200+(G200*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B201" t="s">
         <v>206</v>
@@ -11265,17 +11270,17 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="3">
-        <f>ROUNDUP(F201+(F201*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5456495000</v>
       </c>
       <c r="S201" s="4">
-        <f>ROUNDUP(G201+(G201*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5793039000</v>
       </c>
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B202" t="s">
         <v>207</v>
@@ -11310,17 +11315,17 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="3">
-        <f>ROUNDUP(F202+(F202*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S202" s="4">
-        <f>ROUNDUP(G202+(G202*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B203" t="s">
         <v>208</v>
@@ -11355,17 +11360,17 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="3">
-        <f>ROUNDUP(F203+(F203*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S203" s="4">
-        <f>ROUNDUP(G203+(G203*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B204" t="s">
         <v>209</v>
@@ -11400,17 +11405,17 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="3">
-        <f>ROUNDUP(F204+(F204*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S204" s="4">
-        <f>ROUNDUP(G204+(G204*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B205" t="s">
         <v>210</v>
@@ -11445,17 +11450,17 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="3">
-        <f>ROUNDUP(F205+(F205*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S205" s="4">
-        <f>ROUNDUP(G205+(G205*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B206" t="s">
         <v>211</v>
@@ -11490,17 +11495,17 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="3">
-        <f>ROUNDUP(F206+(F206*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S206" s="4">
-        <f>ROUNDUP(G206+(G206*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B207" t="s">
         <v>212</v>
@@ -11535,17 +11540,17 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="3">
-        <f>ROUNDUP(F207+(F207*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S207" s="4">
-        <f>ROUNDUP(G207+(G207*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B208" t="s">
         <v>213</v>
@@ -11580,17 +11585,17 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="3">
-        <f>ROUNDUP(F208+(F208*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S208" s="4">
-        <f>ROUNDUP(G208+(G208*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
         <v>214</v>
@@ -11625,17 +11630,17 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="3">
-        <f>ROUNDUP(F209+(F209*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4119576000</v>
       </c>
       <c r="S209" s="4">
-        <f>ROUNDUP(G209+(G209*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4373662000</v>
       </c>
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
         <v>215</v>
@@ -11670,17 +11675,17 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="3">
-        <f>ROUNDUP(F210+(F210*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3990029000</v>
       </c>
       <c r="S210" s="4">
-        <f>ROUNDUP(G210+(G210*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4236126000</v>
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B211" t="s">
         <v>216</v>
@@ -11715,17 +11720,17 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="3">
-        <f>ROUNDUP(F211+(F211*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5403519000</v>
       </c>
       <c r="S211" s="4">
-        <f>ROUNDUP(G211+(G211*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5736796000</v>
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B212" t="s">
         <v>217</v>
@@ -11760,17 +11765,17 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="3">
-        <f>ROUNDUP(F212+(F212*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2515741000</v>
       </c>
       <c r="S212" s="4">
-        <f>ROUNDUP(G212+(G212*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B213" t="s">
         <v>218</v>
@@ -11805,17 +11810,17 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="3">
-        <f>ROUNDUP(F213+(F213*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2515741000</v>
       </c>
       <c r="S213" s="4">
-        <f>ROUNDUP(G213+(G213*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B214" t="s">
         <v>219</v>
@@ -11850,17 +11855,17 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="3">
-        <f>ROUNDUP(F214+(F214*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S214" s="4">
-        <f>ROUNDUP(G214+(G214*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B215" t="s">
         <v>220</v>
@@ -11895,17 +11900,17 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="3">
-        <f>ROUNDUP(F215+(F215*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S215" s="4">
-        <f>ROUNDUP(G215+(G215*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B216" t="s">
         <v>221</v>
@@ -11940,17 +11945,17 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="3">
-        <f>ROUNDUP(F216+(F216*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S216" s="4">
-        <f>ROUNDUP(G216+(G216*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B217" t="s">
         <v>222</v>
@@ -11985,17 +11990,17 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="3">
-        <f>ROUNDUP(F217+(F217*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3059685000</v>
       </c>
       <c r="S217" s="4">
-        <f>ROUNDUP(G217+(G217*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3248400000</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B218" t="s">
         <v>223</v>
@@ -12030,17 +12035,17 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="3">
-        <f>ROUNDUP(F218+(F218*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2515741000</v>
       </c>
       <c r="S218" s="4">
-        <f>ROUNDUP(G218+(G218*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2670907000</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B219" t="s">
         <v>224</v>
@@ -12075,17 +12080,17 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="3">
-        <f>ROUNDUP(F219+(F219*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4079580000</v>
       </c>
       <c r="S219" s="4">
-        <f>ROUNDUP(G219+(G219*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4331200000</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B220" t="s">
         <v>225</v>
@@ -12120,17 +12125,17 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="3">
-        <f>ROUNDUP(F220+(F220*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3951291000</v>
       </c>
       <c r="S220" s="4">
-        <f>ROUNDUP(G220+(G220*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4194998000</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B221" t="s">
         <v>226</v>
@@ -12165,17 +12170,17 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="3">
-        <f>ROUNDUP(F221+(F221*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5456495000</v>
       </c>
       <c r="S221" s="4">
-        <f>ROUNDUP(G221+(G221*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5793039000</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B222" t="s">
         <v>227</v>
@@ -12210,17 +12215,17 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="3">
-        <f>ROUNDUP(F222+(F222*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S222" s="4">
-        <f>ROUNDUP(G222+(G222*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B223" t="s">
         <v>228</v>
@@ -12255,17 +12260,17 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="3">
-        <f>ROUNDUP(F223+(F223*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S223" s="4">
-        <f>ROUNDUP(G223+(G223*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B224" t="s">
         <v>229</v>
@@ -12300,17 +12305,17 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="3">
-        <f>ROUNDUP(F224+(F224*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S224" s="4">
-        <f>ROUNDUP(G224+(G224*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B225" t="s">
         <v>230</v>
@@ -12345,17 +12350,17 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="3">
-        <f>ROUNDUP(F225+(F225*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3089682000</v>
       </c>
       <c r="S225" s="4">
-        <f>ROUNDUP(G225+(G225*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3280247000</v>
       </c>
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B226" t="s">
         <v>231</v>
@@ -12390,17 +12395,17 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="3">
-        <f>ROUNDUP(F226+(F226*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2540406000</v>
       </c>
       <c r="S226" s="4">
-        <f>ROUNDUP(G226+(G226*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2697092000</v>
       </c>
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B227" t="s">
         <v>232</v>
@@ -12435,17 +12440,17 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="3">
-        <f>ROUNDUP(F227+(F227*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4119576000</v>
       </c>
       <c r="S227" s="4">
-        <f>ROUNDUP(G227+(G227*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4373662000</v>
       </c>
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B228" t="s">
         <v>233</v>
@@ -12480,17 +12485,17 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="3">
-        <f>ROUNDUP(F228+(F228*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3990029000</v>
       </c>
       <c r="S228" s="4">
-        <f>ROUNDUP(G228+(G228*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4236126000</v>
       </c>
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B229" t="s">
         <v>234</v>
@@ -12525,17 +12530,17 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="3">
-        <f>ROUNDUP(F229+(F229*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5377031000</v>
       </c>
       <c r="S229" s="4">
-        <f>ROUNDUP(G229+(G229*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5708674000</v>
       </c>
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B230" t="s">
         <v>235</v>
@@ -12570,17 +12575,17 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="3">
-        <f>ROUNDUP(F230+(F230*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S230" s="4">
-        <f>ROUNDUP(G230+(G230*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B231" t="s">
         <v>236</v>
@@ -12615,17 +12620,17 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="3">
-        <f>ROUNDUP(F231+(F231*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S231" s="4">
-        <f>ROUNDUP(G231+(G231*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B232" t="s">
         <v>237</v>
@@ -12660,17 +12665,17 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="3">
-        <f>ROUNDUP(F232+(F232*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S232" s="4">
-        <f>ROUNDUP(G232+(G232*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
         <v>238</v>
@@ -12705,17 +12710,17 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="3">
-        <f>ROUNDUP(F233+(F233*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S233" s="4">
-        <f>ROUNDUP(G233+(G233*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B234" t="s">
         <v>239</v>
@@ -12750,17 +12755,17 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="3">
-        <f>ROUNDUP(F234+(F234*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S234" s="4">
-        <f>ROUNDUP(G234+(G234*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B235" t="s">
         <v>240</v>
@@ -12795,17 +12800,17 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="3">
-        <f>ROUNDUP(F235+(F235*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4059582000</v>
       </c>
       <c r="S235" s="4">
-        <f>ROUNDUP(G235+(G235*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4309968000</v>
       </c>
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B236" t="s">
         <v>241</v>
@@ -12840,17 +12845,17 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="3">
-        <f>ROUNDUP(F236+(F236*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3931922000</v>
       </c>
       <c r="S236" s="4">
-        <f>ROUNDUP(G236+(G236*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4174434000</v>
       </c>
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B237" t="s">
         <v>242</v>
@@ -12885,17 +12890,17 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="3">
-        <f>ROUNDUP(F237+(F237*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5377031000</v>
       </c>
       <c r="S237" s="4">
-        <f>ROUNDUP(G237+(G237*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5708674000</v>
       </c>
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B238" t="s">
         <v>243</v>
@@ -12930,17 +12935,17 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="3">
-        <f>ROUNDUP(F238+(F238*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S238" s="4">
-        <f>ROUNDUP(G238+(G238*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B239" t="s">
         <v>244</v>
@@ -12975,17 +12980,17 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="3">
-        <f>ROUNDUP(F239+(F239*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S239" s="4">
-        <f>ROUNDUP(G239+(G239*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B240" t="s">
         <v>245</v>
@@ -13020,17 +13025,17 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="3">
-        <f>ROUNDUP(F240+(F240*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S240" s="4">
-        <f>ROUNDUP(G240+(G240*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B241" t="s">
         <v>246</v>
@@ -13065,17 +13070,17 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="3">
-        <f>ROUNDUP(F241+(F241*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S241" s="4">
-        <f>ROUNDUP(G241+(G241*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B242" t="s">
         <v>247</v>
@@ -13110,17 +13115,17 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="3">
-        <f>ROUNDUP(F242+(F242*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S242" s="4">
-        <f>ROUNDUP(G242+(G242*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B243" t="s">
         <v>248</v>
@@ -13155,17 +13160,17 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="3">
-        <f>ROUNDUP(F243+(F243*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4059582000</v>
       </c>
       <c r="S243" s="4">
-        <f>ROUNDUP(G243+(G243*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4309968000</v>
       </c>
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B244" t="s">
         <v>249</v>
@@ -13200,17 +13205,17 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="3">
-        <f>ROUNDUP(F244+(F244*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3931922000</v>
       </c>
       <c r="S244" s="4">
-        <f>ROUNDUP(G244+(G244*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4174434000</v>
       </c>
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B245" t="s">
         <v>250</v>
@@ -13245,17 +13250,17 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="3">
-        <f>ROUNDUP(F245+(F245*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5377031000</v>
       </c>
       <c r="S245" s="4">
-        <f>ROUNDUP(G245+(G245*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5708674000</v>
       </c>
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B246" t="s">
         <v>251</v>
@@ -13290,17 +13295,17 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="3">
-        <f>ROUNDUP(F246+(F246*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S246" s="4">
-        <f>ROUNDUP(G246+(G246*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B247" t="s">
         <v>252</v>
@@ -13335,17 +13340,17 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="3">
-        <f>ROUNDUP(F247+(F247*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S247" s="4">
-        <f>ROUNDUP(G247+(G247*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B248" t="s">
         <v>253</v>
@@ -13380,17 +13385,17 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="3">
-        <f>ROUNDUP(F248+(F248*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S248" s="4">
-        <f>ROUNDUP(G248+(G248*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B249" t="s">
         <v>254</v>
@@ -13425,17 +13430,17 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="3">
-        <f>ROUNDUP(F249+(F249*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S249" s="4">
-        <f>ROUNDUP(G249+(G249*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B250" t="s">
         <v>255</v>
@@ -13470,17 +13475,17 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="3">
-        <f>ROUNDUP(F250+(F250*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S250" s="4">
-        <f>ROUNDUP(G250+(G250*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B251" t="s">
         <v>256</v>
@@ -13515,17 +13520,17 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="3">
-        <f>ROUNDUP(F251+(F251*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3044687000</v>
       </c>
       <c r="S251" s="4">
-        <f>ROUNDUP(G251+(G251*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
         <v>257</v>
@@ -13560,17 +13565,17 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="3">
-        <f>ROUNDUP(F252+(F252*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S252" s="4">
-        <f>ROUNDUP(G252+(G252*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B253" t="s">
         <v>258</v>
@@ -13605,17 +13610,17 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="3">
-        <f>ROUNDUP(F253+(F253*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>4059582000</v>
       </c>
       <c r="S253" s="4">
-        <f>ROUNDUP(G253+(G253*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4309968000</v>
       </c>
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B254" t="s">
         <v>259</v>
@@ -13650,17 +13655,17 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="3">
-        <f>ROUNDUP(F254+(F254*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>3931922000</v>
       </c>
       <c r="S254" s="4">
-        <f>ROUNDUP(G254+(G254*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>4174434000</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B255" t="s">
         <v>260</v>
@@ -13695,17 +13700,17 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="3">
-        <f>ROUNDUP(F255+(F255*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>5377031000</v>
       </c>
       <c r="S255" s="4">
-        <f>ROUNDUP(G255+(G255*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>5708674000</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B256" t="s">
         <v>261</v>
@@ -13740,17 +13745,17 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="3">
-        <f>ROUNDUP(F256+(F256*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S256" s="4">
-        <f>ROUNDUP(G256+(G256*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
@@ -13785,17 +13790,17 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="3">
-        <f>ROUNDUP(F257+(F257*6%),-3)</f>
+        <f t="shared" si="6"/>
         <v>2503409000</v>
       </c>
       <c r="S257" s="4">
-        <f>ROUNDUP(G257+(G257*6%),-3)</f>
+        <f t="shared" si="7"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B258" t="s">
         <v>263</v>
@@ -13830,17 +13835,17 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="3">
-        <f>ROUNDUP(F258+(F258*6%),-3)</f>
+        <f t="shared" ref="R258:R280" si="8">ROUNDUP(F258+(F258*6%),-3)</f>
         <v>3044687000</v>
       </c>
       <c r="S258" s="4">
-        <f>ROUNDUP(G258+(G258*6%),-3)</f>
+        <f t="shared" ref="S258:S280" si="9">ROUNDUP(G258+(G258*6%),-3)</f>
         <v>3232477000</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B259" t="s">
         <v>264</v>
@@ -13875,17 +13880,17 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="3">
-        <f>ROUNDUP(F259+(F259*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S259" s="4">
-        <f>ROUNDUP(G259+(G259*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B260" t="s">
         <v>265</v>
@@ -13920,17 +13925,17 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="3">
-        <f>ROUNDUP(F260+(F260*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S260" s="4">
-        <f>ROUNDUP(G260+(G260*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B261" t="s">
         <v>266</v>
@@ -13965,17 +13970,17 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="3">
-        <f>ROUNDUP(F261+(F261*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S261" s="4">
-        <f>ROUNDUP(G261+(G261*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B262" t="s">
         <v>267</v>
@@ -14010,17 +14015,17 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="3">
-        <f>ROUNDUP(F262+(F262*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>2503409000</v>
       </c>
       <c r="S262" s="4">
-        <f>ROUNDUP(G262+(G262*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B263" t="s">
         <v>268</v>
@@ -14055,17 +14060,17 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="3">
-        <f>ROUNDUP(F263+(F263*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>4059582000</v>
       </c>
       <c r="S263" s="4">
-        <f>ROUNDUP(G263+(G263*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4309968000</v>
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B264" t="s">
         <v>269</v>
@@ -14100,17 +14105,17 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="3">
-        <f>ROUNDUP(F264+(F264*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3931922000</v>
       </c>
       <c r="S264" s="4">
-        <f>ROUNDUP(G264+(G264*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4174434000</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B265" t="s">
         <v>270</v>
@@ -14145,17 +14150,17 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="3">
-        <f>ROUNDUP(F265+(F265*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>5377031000</v>
       </c>
       <c r="S265" s="4">
-        <f>ROUNDUP(G265+(G265*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>5708674000</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B266" t="s">
         <v>271</v>
@@ -14190,17 +14195,17 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="3">
-        <f>ROUNDUP(F266+(F266*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>2503409000</v>
       </c>
       <c r="S266" s="4">
-        <f>ROUNDUP(G266+(G266*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B267" t="s">
         <v>272</v>
@@ -14235,17 +14240,17 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="3">
-        <f>ROUNDUP(F267+(F267*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>2503409000</v>
       </c>
       <c r="S267" s="4">
-        <f>ROUNDUP(G267+(G267*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B268" t="s">
         <v>273</v>
@@ -14280,17 +14285,17 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="3">
-        <f>ROUNDUP(F268+(F268*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S268" s="4">
-        <f>ROUNDUP(G268+(G268*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B269" t="s">
         <v>274</v>
@@ -14325,17 +14330,17 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="3">
-        <f>ROUNDUP(F269+(F269*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S269" s="4">
-        <f>ROUNDUP(G269+(G269*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B270" t="s">
         <v>275</v>
@@ -14370,17 +14375,17 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="3">
-        <f>ROUNDUP(F270+(F270*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S270" s="4">
-        <f>ROUNDUP(G270+(G270*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B271" t="s">
         <v>276</v>
@@ -14415,17 +14420,17 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="3">
-        <f>ROUNDUP(F271+(F271*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3044687000</v>
       </c>
       <c r="S271" s="4">
-        <f>ROUNDUP(G271+(G271*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3232477000</v>
       </c>
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B272" t="s">
         <v>277</v>
@@ -14460,17 +14465,17 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="3">
-        <f>ROUNDUP(F272+(F272*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>2503409000</v>
       </c>
       <c r="S272" s="4">
-        <f>ROUNDUP(G272+(G272*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>2657814000</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B273" t="s">
         <v>278</v>
@@ -14505,17 +14510,17 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="3">
-        <f>ROUNDUP(F273+(F273*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>4059582000</v>
       </c>
       <c r="S273" s="4">
-        <f>ROUNDUP(G273+(G273*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4309968000</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B274" t="s">
         <v>279</v>
@@ -14550,17 +14555,17 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="3">
-        <f>ROUNDUP(F274+(F274*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3931922000</v>
       </c>
       <c r="S274" s="4">
-        <f>ROUNDUP(G274+(G274*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4174434000</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B275" t="s">
         <v>280</v>
@@ -14595,17 +14600,17 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="3">
-        <f>ROUNDUP(F275+(F275*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>5430006000</v>
       </c>
       <c r="S275" s="4">
-        <f>ROUNDUP(G275+(G275*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>5764918000</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B276" t="s">
         <v>281</v>
@@ -14640,17 +14645,17 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="3">
-        <f>ROUNDUP(F276+(F276*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>2528073000</v>
       </c>
       <c r="S276" s="4">
-        <f>ROUNDUP(G276+(G276*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>2683999000</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B277" t="s">
         <v>282</v>
@@ -14685,17 +14690,17 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="3">
-        <f>ROUNDUP(F277+(F277*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3074684000</v>
       </c>
       <c r="S277" s="4">
-        <f>ROUNDUP(G277+(G277*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3264323000</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B278" t="s">
         <v>283</v>
@@ -14730,17 +14735,17 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="3">
-        <f>ROUNDUP(F278+(F278*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3074684000</v>
       </c>
       <c r="S278" s="4">
-        <f>ROUNDUP(G278+(G278*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>3264323000</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B279" t="s">
         <v>284</v>
@@ -14775,17 +14780,17 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="3">
-        <f>ROUNDUP(F279+(F279*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>4099578000</v>
       </c>
       <c r="S279" s="4">
-        <f>ROUNDUP(G279+(G279*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4352430000</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B280" t="s">
         <v>285</v>
@@ -14820,11 +14825,11 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="3">
-        <f>ROUNDUP(F280+(F280*6%),-3)</f>
+        <f t="shared" si="8"/>
         <v>3970661000</v>
       </c>
       <c r="S280" s="4">
-        <f>ROUNDUP(G280+(G280*6%),-3)</f>
+        <f t="shared" si="9"/>
         <v>4215562000</v>
       </c>
     </row>
